--- a/src/test/java/dataProvider/article/NewArticle.xlsx
+++ b/src/test/java/dataProvider/article/NewArticle.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="newArticleTest" sheetId="1" r:id="rId1"/>
     <sheet name="invalidNewArticleTest" sheetId="2" r:id="rId2"/>
+    <sheet name="newArticleTestWithoutTags" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>articleTags</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>tttt</t>
   </si>
   <si>
     <t>body can't be blank</t>
@@ -164,15 +162,50 @@
 fields by not filling the 
 “Tags” field.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible 
+to fill data with special 
+characters. </t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t>Check filling "Tags" 
+field with multiple 
+tags</t>
+  </si>
+  <si>
+    <t>article 4</t>
+  </si>
+  <si>
+    <t>about article 4</t>
+  </si>
+  <si>
+    <t>body article 4</t>
+  </si>
+  <si>
+    <t>tag
+tag 2
+tag 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,16 +228,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -554,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -566,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -574,24 +610,56 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -599,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -648,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -662,19 +730,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -685,19 +753,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -705,22 +773,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -728,25 +796,92 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
